--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06813726882612756</v>
+        <v>0.08390303802875526</v>
       </c>
       <c r="H2" t="n">
-        <v>-48.15333720416361</v>
+        <v>-36.15692857716881</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.164574361046615</v>
+        <v>-21.20859238905999</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.111512350620542</v>
+        <v>0.1299686832758773</v>
       </c>
       <c r="H3" t="n">
-        <v>25.24243266833955</v>
+        <v>45.97122178476677</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6602912118340949</v>
+        <v>-0.763411951047763</v>
       </c>
       <c r="H4" t="n">
-        <v>7.304502379014306</v>
+        <v>-24.06274390632854</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6626588416241714</v>
+        <v>-0.6487145077394124</v>
       </c>
       <c r="H5" t="n">
-        <v>8.527050913778442</v>
+        <v>-6.243315545876628</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2996250477928588</v>
+        <v>0.2327571647385957</v>
       </c>
       <c r="H6" t="n">
-        <v>21.74545782551306</v>
+        <v>-5.424704002520047</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3811037224091537</v>
+        <v>0.3233338588108007</v>
       </c>
       <c r="H7" t="n">
-        <v>132.6328915496906</v>
+        <v>97.36907851642994</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.109966109206437</v>
+        <v>0.1438878313958999</v>
       </c>
       <c r="H8" t="n">
-        <v>-33.47842111075659</v>
+        <v>-12.95822143315205</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2137188880950734</v>
+        <v>0.1833736205203756</v>
       </c>
       <c r="H9" t="n">
-        <v>9.547443127731697</v>
+        <v>-6.006851129854972</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1292188069314049</v>
+        <v>-0.1561912374687073</v>
       </c>
       <c r="H10" t="n">
-        <v>126.1190999677737</v>
+        <v>-173.3179703324856</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1314450210599625</v>
+        <v>-0.125363707273024</v>
       </c>
       <c r="H11" t="n">
-        <v>10.67346723336964</v>
+        <v>-5.553150946702916</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1922264581501866</v>
+        <v>0.2174705154782628</v>
       </c>
       <c r="H12" t="n">
-        <v>20.87487986280855</v>
+        <v>36.74872171655078</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1717779355403103</v>
+        <v>0.1798461969837346</v>
       </c>
       <c r="H13" t="n">
-        <v>-16.47550514598214</v>
+        <v>-12.55243167736414</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1831127346869761</v>
+        <v>0.190004964532156</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.305824537363063</v>
+        <v>0.3336737373904686</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1954350462125038</v>
+        <v>0.2367767550015582</v>
       </c>
       <c r="H15" t="n">
-        <v>-21.79639478209236</v>
+        <v>-5.253452582987111</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002953228414776726</v>
+        <v>0.005022356227122955</v>
       </c>
       <c r="H16" t="n">
-        <v>-91.90458216110197</v>
+        <v>-86.23266930830148</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01540424881672103</v>
+        <v>-0.0001728912089638381</v>
       </c>
       <c r="H17" t="n">
-        <v>-143.4282282757257</v>
+        <v>-100.4874212938964</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1187892266560882</v>
+        <v>0.08548085485803285</v>
       </c>
       <c r="H18" t="n">
-        <v>-31.46019735651942</v>
+        <v>-50.67868453485465</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1416267520517099</v>
+        <v>0.104218744917061</v>
       </c>
       <c r="H19" t="n">
-        <v>12.62301120830458</v>
+        <v>-17.12421059670918</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1106027853209154</v>
+        <v>0.08767697570785186</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.531744284320753</v>
+        <v>-23.52774038717628</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04204389087708683</v>
+        <v>0.08351784939982017</v>
       </c>
       <c r="H21" t="n">
-        <v>-58.12312496395601</v>
+        <v>-16.81391827364226</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06454774548290573</v>
+        <v>0.07631341488650217</v>
       </c>
       <c r="H22" t="n">
-        <v>-31.47588884571292</v>
+        <v>-18.98541327627335</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06930595810303712</v>
+        <v>0.05666116387261208</v>
       </c>
       <c r="H23" t="n">
-        <v>-36.11764600083542</v>
+        <v>-47.7729097528159</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1746164567897847</v>
+        <v>-0.2338513118146741</v>
       </c>
       <c r="H24" t="n">
-        <v>40.11423967331368</v>
+        <v>-87.64496401943317</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2003489699192355</v>
+        <v>-0.1826443741354775</v>
       </c>
       <c r="H25" t="n">
-        <v>-9.936934461252914</v>
+        <v>17.89569846713929</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.183953743146329</v>
+        <v>0.1837546816765711</v>
       </c>
       <c r="H26" t="n">
-        <v>15.7074096870303</v>
+        <v>15.58219947580966</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1763054335564136</v>
+        <v>0.2045339896368011</v>
       </c>
       <c r="H27" t="n">
-        <v>-12.05234918223291</v>
+        <v>2.029095406105847</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02682040433749544</v>
+        <v>-0.02339979522631088</v>
       </c>
       <c r="H28" t="n">
-        <v>-433.9838195124302</v>
+        <v>-191.3883358039575</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05958840055223665</v>
+        <v>0.03358686589417845</v>
       </c>
       <c r="H29" t="n">
-        <v>287.5040296184726</v>
+        <v>118.4157613836284</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08390303802875526</v>
+        <v>0.09124040616993714</v>
       </c>
       <c r="H2" t="n">
-        <v>-36.15692857716881</v>
+        <v>-30.57381586398508</v>
       </c>
       <c r="I2" t="n">
-        <v>-21.20859238905999</v>
+        <v>1.769845217231135</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1299686832758773</v>
+        <v>0.147159293691548</v>
       </c>
       <c r="H3" t="n">
-        <v>45.97122178476677</v>
+        <v>65.27844520469607</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.763411951047763</v>
+        <v>-0.7945873311133941</v>
       </c>
       <c r="H4" t="n">
-        <v>-24.06274390632854</v>
+        <v>-29.12908218929165</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6487145077394124</v>
+        <v>-0.6515421682246798</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.243315545876628</v>
+        <v>-6.706416064839506</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2327571647385957</v>
+        <v>0.1996875845601599</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.424704002520047</v>
+        <v>-18.86173541420811</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3233338588108007</v>
+        <v>0.3882072456746861</v>
       </c>
       <c r="H7" t="n">
-        <v>97.36907851642994</v>
+        <v>136.9690159701107</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1438878313958999</v>
+        <v>0.1594138041217252</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.95822143315205</v>
+        <v>-3.566125750523551</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1833736205203756</v>
+        <v>0.2077918103965916</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.006851129854972</v>
+        <v>6.509357851903191</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1561912374687073</v>
+        <v>-0.1238758092119051</v>
       </c>
       <c r="H10" t="n">
-        <v>-173.3179703324856</v>
+        <v>-116.7694250701831</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.125363707273024</v>
+        <v>-0.1069914105843795</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.553150946702916</v>
+        <v>9.915869935000034</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2174705154782628</v>
+        <v>0.2089564476610566</v>
       </c>
       <c r="H12" t="n">
-        <v>36.74872171655078</v>
+        <v>31.39494818062817</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1798461969837346</v>
+        <v>0.176582253717831</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.55243167736414</v>
+        <v>-14.13947608827334</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.190004964532156</v>
+        <v>0.1783164488523147</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3336737373904686</v>
+        <v>-5.838542454871688</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2367767550015582</v>
+        <v>0.2300177221947939</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.253452582987111</v>
+        <v>-7.958088949487803</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005022356227122955</v>
+        <v>-0.006705822848939855</v>
       </c>
       <c r="H16" t="n">
-        <v>-86.23266930830148</v>
+        <v>-118.3820654183642</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0001728912089638381</v>
+        <v>-0.0001456530265392189</v>
       </c>
       <c r="H17" t="n">
-        <v>-100.4874212938964</v>
+        <v>-100.4106304020959</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08548085485803285</v>
+        <v>0.04465794095562786</v>
       </c>
       <c r="H18" t="n">
-        <v>-50.67868453485465</v>
+        <v>-74.23296248552464</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.104218744917061</v>
+        <v>0.06007550535521902</v>
       </c>
       <c r="H19" t="n">
-        <v>-17.12421059670918</v>
+        <v>-52.22735666143728</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08767697570785186</v>
+        <v>0.07899718956387268</v>
       </c>
       <c r="H20" t="n">
-        <v>-23.52774038717628</v>
+        <v>-31.09828959952467</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08351784939982017</v>
+        <v>0.09526700080846671</v>
       </c>
       <c r="H21" t="n">
-        <v>-16.81391827364226</v>
+        <v>-5.111439386570639</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07631341488650217</v>
+        <v>0.06423643509447831</v>
       </c>
       <c r="H22" t="n">
-        <v>-18.98541327627335</v>
+        <v>-31.80637703705857</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05666116387261208</v>
+        <v>0.08041847627501268</v>
       </c>
       <c r="H23" t="n">
-        <v>-47.7729097528159</v>
+        <v>-25.87474857737158</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2338513118146741</v>
+        <v>-0.1971171139517948</v>
       </c>
       <c r="H24" t="n">
-        <v>-87.64496401943317</v>
+        <v>-58.16902401818408</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1826443741354775</v>
+        <v>-0.1398674342544872</v>
       </c>
       <c r="H25" t="n">
-        <v>17.89569846713929</v>
+        <v>37.12525747910595</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1837546816765711</v>
+        <v>0.2250979697836644</v>
       </c>
       <c r="H26" t="n">
-        <v>15.58219947580966</v>
+        <v>41.58724124878993</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2045339896368011</v>
+        <v>0.1719898235344214</v>
       </c>
       <c r="H27" t="n">
-        <v>2.029095406105847</v>
+        <v>-14.20513458211327</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02339979522631088</v>
+        <v>0.0305621861390063</v>
       </c>
       <c r="H28" t="n">
-        <v>-191.3883358039575</v>
+        <v>480.5787388926575</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03358686589417845</v>
+        <v>0.01311046931265</v>
       </c>
       <c r="H29" t="n">
-        <v>118.4157613836284</v>
+        <v>-14.74247266651109</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>